--- a/table1_test.xlsx
+++ b/table1_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sissi/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sissi/Downloads/Hacknyu/co2-leaderboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CFF47E-B775-C84E-A4A0-8824764F7C19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D1B90E-28A6-1842-9EC8-7E018DDE2FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -54,23 +54,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF0096D7"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -373,13 +363,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BA12"/>
+  <dimension ref="A1:BA11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A1:A40"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2155,167 +2145,6 @@
         <v>56.183157236598227</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>4255.7640900443384</v>
-      </c>
-      <c r="B12" s="2">
-        <v>4301.0512282360532</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4520.3688791775276</v>
-      </c>
-      <c r="D12" s="2">
-        <v>4717.1279723658863</v>
-      </c>
-      <c r="E12" s="2">
-        <v>4545.5482075853379</v>
-      </c>
-      <c r="F12" s="2">
-        <v>4420.3785368619001</v>
-      </c>
-      <c r="G12" s="2">
-        <v>4689.2877626846366</v>
-      </c>
-      <c r="H12" s="2">
-        <v>4827.3907726079769</v>
-      </c>
-      <c r="I12" s="2">
-        <v>4868.9285413083844</v>
-      </c>
-      <c r="J12" s="2">
-        <v>4933.3505107580768</v>
-      </c>
-      <c r="K12" s="2">
-        <v>4755.146950256898</v>
-      </c>
-      <c r="L12" s="2">
-        <v>4636.0184488450441</v>
-      </c>
-      <c r="M12" s="2">
-        <v>4392.2706596648077</v>
-      </c>
-      <c r="N12" s="2">
-        <v>4373.5939467484459</v>
-      </c>
-      <c r="O12" s="2">
-        <v>4596.909431172784</v>
-      </c>
-      <c r="P12" s="2">
-        <v>4600.0257952534821</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>4603.8945366114403</v>
-      </c>
-      <c r="R12" s="2">
-        <v>4755.7814146250421</v>
-      </c>
-      <c r="S12" s="2">
-        <v>4984.8017315751022</v>
-      </c>
-      <c r="T12" s="2">
-        <v>5059.1651159502289</v>
-      </c>
-      <c r="U12" s="2">
-        <v>5018.5258093303892</v>
-      </c>
-      <c r="V12" s="2">
-        <v>4971.5606807581098</v>
-      </c>
-      <c r="W12" s="2">
-        <v>5066.0785209594142</v>
-      </c>
-      <c r="X12" s="2">
-        <v>5161.0240817235936</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>5232.4491538935317</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>5297.0442537952458</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>5494.966975646651</v>
-      </c>
-      <c r="AB12" s="2">
-        <v>5568.0992721331913</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>5602.5581560333476</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>5665.8653807746596</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>5857.665114966193</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>5748.1166290486426</v>
-      </c>
-      <c r="AG12" s="2">
-        <v>5783.7047065387114</v>
-      </c>
-      <c r="AH12" s="2">
-        <v>5855.1206963183067</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>5953.1451286918327</v>
-      </c>
-      <c r="AJ12" s="2">
-        <v>5978.6220484431369</v>
-      </c>
-      <c r="AK12" s="2">
-        <v>5899.9688380199159</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>5990.3939377624074</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>5797.6006583389471</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>5384.827416899825</v>
-      </c>
-      <c r="AO12" s="2">
-        <v>5576.3847107436259</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>5436.2864054432084</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>5215.6691361138974</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>5340.0220420953419</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>5395.7748709540238</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>5242.8736500696741</v>
-      </c>
-      <c r="AU12" s="2">
-        <v>5149.659407678565</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>5114.4328937019309</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>5267.1561821503037</v>
-      </c>
-      <c r="AX12" s="2">
-        <v>5134.7697159338823</v>
-      </c>
-      <c r="AY12" s="2">
-        <v>4571.972692768788</v>
-      </c>
-      <c r="AZ12" s="2">
-        <v>4895.597877406547</v>
-      </c>
-      <c r="BA12" s="2">
-        <v>4934.4075523171077</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
